--- a/data/BirthWeight.xlsx
+++ b/data/BirthWeight.xlsx
@@ -579,7 +579,7 @@
         <v>57</v>
       </c>
       <c r="C9">
-        <v>39.7000007629395</v>
+        <v>39.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>39.2000007629395</v>
+        <v>39.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>58</v>
       </c>
       <c r="C28">
-        <v>38.4000015258789</v>
+        <v>38.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>53.5</v>
       </c>
       <c r="C32">
-        <v>37.4000015258789</v>
+        <v>37.4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>54.5</v>
       </c>
       <c r="C33">
-        <v>38.7000007629395</v>
+        <v>38.7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>41.2000007629395</v>
+        <v>41.2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>38.2999992370605</v>
+        <v>38.3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>37.7999992370605</v>
+        <v>37.8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>40.2999992370605</v>
+        <v>40.3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>58</v>
       </c>
       <c r="C61">
-        <v>40.2999992370605</v>
+        <v>40.3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>56</v>
       </c>
       <c r="C65">
-        <v>38.4000015258789</v>
+        <v>38.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>51</v>
       </c>
       <c r="C68">
-        <v>37.9000015258789</v>
+        <v>37.9</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>56</v>
       </c>
       <c r="C144">
-        <v>37.4000015258789</v>
+        <v>37.4</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>56</v>
       </c>
       <c r="C145">
-        <v>37.2000007629395</v>
+        <v>37.2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>56</v>
       </c>
       <c r="C146">
-        <v>36.0999984741211</v>
+        <v>36.1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>54</v>
       </c>
       <c r="C149">
-        <v>37.2000007629395</v>
+        <v>37.2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>56</v>
       </c>
       <c r="C156">
-        <v>38.2000007629395</v>
+        <v>38.2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>61</v>
       </c>
       <c r="C273">
-        <v>38.2000007629395</v>
+        <v>38.2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>57</v>
       </c>
       <c r="C279">
-        <v>37.2000007629395</v>
+        <v>37.2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>57.5</v>
       </c>
       <c r="C305">
-        <v>39.2000007629395</v>
+        <v>39.2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>58</v>
       </c>
       <c r="C317">
-        <v>39.7999992370605</v>
+        <v>39.8</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>53</v>
       </c>
       <c r="C330">
-        <v>37.4000015258789</v>
+        <v>37.4</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>53.5</v>
       </c>
       <c r="C338">
-        <v>37.2000007629395</v>
+        <v>37.2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>52.5</v>
       </c>
       <c r="C341">
-        <v>38.7000007629395</v>
+        <v>38.7</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>52</v>
       </c>
       <c r="C353">
-        <v>38.4000015258789</v>
+        <v>38.4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>53.5</v>
       </c>
       <c r="C358">
-        <v>37.2999992370605</v>
+        <v>37.3</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>54</v>
       </c>
       <c r="C372">
-        <v>36.5999984741211</v>
+        <v>36.6</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>53.5</v>
       </c>
       <c r="C406">
-        <v>36.7999992370605</v>
+        <v>36.8</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>58.5</v>
       </c>
       <c r="C408">
-        <v>38.5999984741211</v>
+        <v>38.6</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>53</v>
       </c>
       <c r="C423">
-        <v>37.9000015258789</v>
+        <v>37.9</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>51</v>
       </c>
       <c r="C444">
-        <v>35.7000007629395</v>
+        <v>35.7</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>55</v>
       </c>
       <c r="C456">
-        <v>38.7000007629395</v>
+        <v>38.7</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
